--- a/src/public/uploads/Libro6.xlsx
+++ b/src/public/uploads/Libro6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliocesarmendoza/Desktop/pipApp/Backend-pi/src/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AFC080-B651-014B-82C1-81877D7964D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33CCFCF-8BEA-8F41-952C-F102C8A96CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{8809A257-CE2B-1A42-971B-B98665D5342F}"/>
   </bookViews>
@@ -1985,12 +1985,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,6 +1997,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,6762 +2319,6762 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4578073-E5AA-574A-9FC2-2F812D6A432A}">
   <dimension ref="A1:C614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="F627" sqref="F627"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1.1792618382445855E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2.2609083937337833E-3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>4.9966075501516613E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>2.2628359233979531E-3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1.6999414150900038E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>3.2310043433144654E-3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1.2919839683546161E-3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>3.2289312237649337E-3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1.2916170445405398E-3</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1.2926238711865492E-3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>2.2605349627018686E-3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>6.4578624475298692E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>2.2637388747660898E-3</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1.291889399281811E-3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>2.2605389751646204E-3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>1.2916642204594928E-3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>3.2331566874427671E-4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>1.2916572311800327E-3</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>1.292218906221238E-3</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>1.2917793428548581E-3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>1.2918690655530074E-3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>1.2948778880442144E-3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>3.4089151190237196E-4</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>3.6816283285456174E-6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>3.2402616001591233E-3</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>3.232977786762859E-3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>1.2940440524464465E-3</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>8.0446405260420806E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>1.2992860850170643E-3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>1.2917179812099824E-3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>3.2290767154689423E-3</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>1.2917179812099824E-3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>1.2982933620961266E-3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>2.2613740549169031E-3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>2.3203790622772363E-3</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>1.4178493072224351E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>1.2982933620961266E-3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>6.1079709250614635E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>2.2640098069880649E-3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>3.239165510530002E-3</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>3.2290350428016215E-4</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>1.2916140171206488E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>4.2052209690238446E-3</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>4.9201085337578982E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>3.2312029784304355E-3</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>1.2940802333300703E-3</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>4.1986328804938904E-3</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>8.5484165446855613E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>1.2919106549489072E-3</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>8.5077043130781741E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>1.2916140171206486E-3</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>5.1664560684825951E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>1.2930159411058085E-3</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>4.2076176701959485E-3</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>1.2929355423052747E-3</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>1.0275732257622708E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>1.3151718918409027E-3</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>1.0826736884327068E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>1.291610482562263E-3</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>1.0763420688018855E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>1.2933483633878597E-3</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>1.2242638586702876E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>1.3025104243583894E-3</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>1.078292558450981E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>1.2929355423052747E-3</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>9.5178526421415416E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>1.2926970080653966E-3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>1.2246603234303765E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>1.2919700465724364E-3</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>9.0437903260070555E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>1.2927310843853794E-3</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>7.4978402894351997E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>1.2926970080653966E-3</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>1.0645740066420914E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>1.2963944608032605E-3</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>1.2916158717688709E-3</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>5.6157211816037838E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>1.2929355423052747E-3</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>1.2251834614857842E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>3.2297263378978595E-3</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>1.2923676036388993E-3</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>3.2296127501645843E-3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>2.3292136033392433E-3</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>2.2659312432992077E-3</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>1.2919706877937034E-3</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>4.1976105908944142E-3</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>2.2603833431010002E-3</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="4">
         <v>2.0858101059708324E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>3.229002367071417E-3</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="4">
         <v>2.4941259662896453E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>3.229002367071417E-3</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="4">
         <v>1.4361314189405387E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>3.2314809925181199E-3</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>1.291809183624572E-3</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="4">
         <v>7.7508551017474315E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>1.292009098959854E-3</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>3.2323502145365137E-3</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>1.2934239695583574E-3</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="4">
         <v>2.586847939116715E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>1.2917893398328027E-3</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="4">
         <v>5.1962226194774493E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>1.291729240577893E-3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="4">
         <v>2.583458481155786E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>1.2916167887219506E-3</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2">
         <v>1.2918110237458513E-3</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2">
         <v>2.2683211575255926E-3</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="4">
         <v>1.6899699616789393E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2">
         <v>3.2417881822042302E-3</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>5.2367347558683868E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="2">
         <v>2.2613684591644961E-3</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>2.2613684591644961E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="2">
         <v>1.2920713668305177E-3</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="2">
         <v>4.2009046351593913E-3</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>2.8272088194622705E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="2">
         <v>1.2931524409350598E-3</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="2">
         <v>1.2918914438610099E-3</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="2">
         <v>1.2939208510190962E-3</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="4">
         <v>4.6904630849442237E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="2">
         <v>1.292026840439074E-3</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="2">
         <v>1.2916967113266429E-3</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>8.7577037027946399E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="2">
         <v>1.3068256214860791E-3</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>2.6136512429721586E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="2">
         <v>4.2054481444903941E-3</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="2">
         <v>3.2315382966205258E-3</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="2">
         <v>4.1993144068935397E-3</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="2">
         <v>1.2953220270930247E-3</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>1.6580121946790715E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="2">
         <v>1.2916855297463743E-3</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="2">
         <v>1.2924222819814962E-3</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="2">
         <v>2.2604287864188047E-3</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>2.2604287864188047E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <v>3.2310768761874346E-4</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>6.4621537523748694E-6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="2">
         <v>1.292026840439074E-3</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>1.4987511349093258E-4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="2">
         <v>1.2916440659661481E-3</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="2">
         <v>3.2414774416650734E-3</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>2.7738619059304698E-3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>1.2959844074479775E-3</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>7.8074385449389315E-4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2">
         <v>1.3006307295798771E-3</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>8.8961109667748622E-4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="2">
         <v>1.2921957431266992E-3</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="2">
         <v>2.2608879479417941E-3</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="4">
         <v>3.3913319219126912E-4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>1.2915738366564903E-3</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="2">
         <v>3.2416757674383978E-3</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="4">
         <v>1.9259876292940655E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="2">
         <v>1.2917424167549531E-3</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="2">
         <v>1.2917988995821352E-3</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="2">
         <v>1.2918595234360916E-3</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="2">
         <v>2.2664238087653421E-3</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
         <v>2.1497339992008767E-5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="4">
         <v>3.0717775043987618E-3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="2">
         <v>2.2626914164228604E-3</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="4">
         <v>2.2588949543147691E-3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="2">
         <v>2.2671868528590842E-3</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="4">
         <v>5.231969660444046E-4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="2">
         <v>2.2743369376828269E-3</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="4">
         <v>1.2071480669239624E-3</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="2">
         <v>4.2315288088687914E-3</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="2">
         <v>4.1992190379665298E-3</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>1.2597657113899588E-3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="2">
         <v>2.3153068391998958E-3</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>2.6143552666892858E-5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="4">
         <v>1.6790843952615793E-3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="4">
         <v>2.2602518566354536E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="2">
         <v>4.2040948767810863E-3</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="4">
         <v>4.1251905708100927E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="2">
         <v>2.2603522538949873E-3</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="4">
         <v>1.5100278542617956E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="2">
         <v>4.2037217642709648E-3</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="4">
         <v>3.0614690917725074E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="2">
         <v>2.2605389822678208E-3</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="4">
         <v>6.9555045608240705E-4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="2">
         <v>2.2653807381889765E-3</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="4">
         <v>1.9401711053005095E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="2">
         <v>2.2603544329868556E-3</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="4">
         <v>9.4868890435579635E-4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="2">
         <v>2.2776445841984822E-3</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="4">
         <v>2.2506776797017727E-3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="2">
         <v>1.3135035226075054E-3</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="4">
         <v>1.1981405318414332E-3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="2">
         <v>3.2314645355491781E-4</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="4">
         <v>2.7467448552168013E-4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="2">
         <v>1.3128584922221663E-3</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="4">
         <v>1.206755792224046E-3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="2">
         <v>1.3128584922221663E-3</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="4">
         <v>1.2298637462012591E-3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="2">
         <v>1.2916280987890422E-3</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="2">
         <v>2.2602904764647672E-3</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="4">
         <v>1.1301452382323837E-4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="2">
         <v>1.3256923101704361E-3</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="4">
         <v>9.8101230952612274E-6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="2">
         <v>1.2916298399525041E-3</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="4">
         <v>5.1665193598100164E-5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="2">
         <v>1.299359572386365E-3</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="2">
         <v>1.2916043508651573E-3</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="2">
         <v>1.2915884201855656E-3</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="2">
         <v>1.2916400742072722E-3</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="4">
         <v>1.162476066786545E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="2">
         <v>3.229985899498921E-3</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="2">
         <v>3.2292691472714279E-4</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="4">
         <v>1.7760980309992856E-4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="2">
         <v>3.2334411609237497E-3</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2">
         <v>1.2916043508651573E-3</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="2">
         <v>2.2667868823186849E-3</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="4">
         <v>1.1333934411593425E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="2">
         <v>2.2633426015754151E-3</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="4">
         <v>2.2390237076648704E-3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="2">
         <v>1.292428144366868E-3</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="4">
         <v>1.292428144366868E-4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="2">
         <v>2.2604649281297664E-3</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="2">
         <v>2.2604692843095466E-3</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="4">
         <v>2.7125631411714559E-4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="2">
         <v>1.2939182864928618E-3</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="4">
         <v>1.0575194155506159E-3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="2">
         <v>1.2932562699951309E-3</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="2">
         <v>2.2615103519262746E-3</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="4">
         <v>3.2307290741803951E-4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="2">
         <v>2.2671699783747214E-3</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="4">
         <v>3.8797378912814578E-5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="2">
         <v>2.2686494892323991E-3</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="4">
         <v>2.1265084710127675E-3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="2">
         <v>2.2619356371246114E-3</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="2">
         <v>2.2647953659664568E-3</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="4">
         <v>1.0915839804935138E-3</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="2">
         <v>2.2603087683607231E-3</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="4">
         <v>3.0729514153709885E-4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="2">
         <v>2.260337224223358E-3</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="4">
         <v>6.1857801753945855E-4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="2">
         <v>4.2101052415546725E-3</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="2">
         <v>2.2610242532217239E-3</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="4">
         <v>9.3267250445396108E-4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="2">
         <v>2.2647953659664568E-3</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="4">
         <v>8.9481015821562908E-4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="2">
         <v>1.2935740875946976E-3</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="4">
         <v>7.5766482273403749E-4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="2">
         <v>1.2935740875946976E-3</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>7.761444525568185E-4</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="2">
         <v>2.2633549444236517E-3</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="4">
         <v>1.4403167828150503E-3</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="2">
         <v>2.2619739371064814E-3</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="4">
         <v>1.3571843622638888E-3</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="2">
         <v>2.2607540395721791E-3</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="2">
         <v>3.2317593620517012E-4</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="2">
         <v>1.2920178785760614E-3</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="2">
         <v>2.2605448499329805E-3</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="2">
         <v>3.2297058967267441E-4</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="2">
         <v>3.237301642662241E-4</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="2">
         <v>1.2918844514136516E-3</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="2">
         <v>3.2969859732980315E-4</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="4">
         <v>1.0220656517223897E-4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="2">
         <v>3.2452554393634008E-4</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="4">
         <v>2.4700927918108603E-5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="2">
         <v>3.2308622152306106E-4</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="2">
         <v>3.237301642662241E-4</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="2">
         <v>1.291592935297963E-3</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="2">
         <v>3.2308255035780982E-4</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="4">
         <v>1.9384953021468588E-4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="2">
         <v>1.2920696164149918E-3</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="4">
         <v>7.6878142176692007E-4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="2">
         <v>1.2998387867799591E-3</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="4">
         <v>1.1373589384324643E-3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="2">
         <v>3.2378743744963334E-4</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="4">
         <v>9.173977394406267E-5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="2">
         <v>3.2728863278924815E-4</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="4">
         <v>3.2693670952818453E-4</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="2">
         <v>1.2928725548121927E-3</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="4">
         <v>3.4261122702523107E-4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="2">
         <v>1.2927311335592104E-3</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="4">
         <v>1.1893126428744736E-3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="2">
         <v>1.2921400145917861E-3</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="4">
         <v>8.8312800228061635E-5</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="2">
         <v>1.2917810365842665E-3</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="2">
         <v>1.2921400145917861E-3</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="4">
         <v>6.153047688532313E-5</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="2">
         <v>1.2920957374229953E-3</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="4">
         <v>4.6386236973485531E-4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="2">
         <v>1.2921518115325921E-3</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="2">
         <v>1.2941381205656456E-3</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="2">
         <v>3.350318171192547E-4</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="4">
         <v>3.350318171192547E-4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="2">
         <v>1.2926602792752687E-3</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="2">
         <v>1.2926602792752687E-3</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="4">
         <v>6.463301396376343E-5</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="2">
         <v>1.2916615616116738E-3</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="4">
         <v>4.8437308560437766E-4</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="2">
         <v>1.2917771728995922E-3</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="4">
         <v>1.2917771728995924E-4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="2">
         <v>1.2920476355491777E-3</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="4">
         <v>2.5840952710983557E-4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="2">
         <v>1.293473073678791E-3</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="2">
         <v>3.2429470726615E-3</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="4">
         <v>5.1887153162583999E-4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="2">
         <v>1.2948358588138595E-3</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="4">
         <v>3.8845075764415784E-4</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="2">
         <v>1.2920476355491777E-3</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="4">
         <v>1.2920476355491778E-4</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="2">
         <v>3.2299029863409965E-4</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="4">
         <v>8.0747574658524912E-5</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="2">
         <v>1.2920398323721051E-3</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="2">
         <v>3.2296624841099598E-4</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="2">
         <v>3.3227562550300967E-4</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="2">
         <v>3.2333482027700294E-4</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="2">
         <v>3.2291690677375122E-4</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="2">
         <v>1.2916360986366074E-3</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="4">
         <v>1.6791269282275898E-4</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="2">
         <v>1.2915979331582271E-3</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="4">
         <v>5.1663917326329084E-5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="2">
         <v>1.2917259385437352E-3</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="4">
         <v>4.5210407849030729E-4</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="2">
         <v>3.2289837827283352E-3</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="2">
         <v>3.2303478498269553E-4</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="4">
         <v>7.4298000546019975E-5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="2">
         <v>3.2421307274910221E-4</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="2">
         <v>3.2307428253975783E-4</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="4">
         <v>1.0984525606351767E-4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="2">
         <v>1.2924134329203951E-3</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="4">
         <v>1.2924134329203951E-4</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="2">
         <v>1.2915882297955517E-3</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="2">
         <v>3.2289837827283352E-3</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="2">
         <v>3.2291690677375122E-4</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="2">
         <v>1.2917447803077286E-3</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="4">
         <v>6.9431281941540412E-4</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="2">
         <v>3.2320790416704272E-4</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="2">
         <v>2.260295303943431E-3</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="2">
         <v>2.26036891695644E-3</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="4">
         <v>9.0414756678257601E-5</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="2">
         <v>1.2916497291646006E-3</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="2">
         <v>1.2918070722846187E-3</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="4">
         <v>5.716246294859438E-4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="2">
         <v>1.2930243755215512E-3</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="4">
         <v>9.764081365424901E-4</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="2">
         <v>3.2289794985515758E-4</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="2">
         <v>3.2385186734571825E-4</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="4">
         <v>4.9823364207033626E-5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="2">
         <v>3.2290277733382179E-4</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="4">
         <v>1.2916111093352872E-5</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="2">
         <v>3.2291243229115016E-4</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="2">
         <v>1.2917424167549531E-3</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="2">
         <v>3.2783031366746704E-4</v>
       </c>
-      <c r="C237" s="6">
+      <c r="C237" s="4">
         <v>4.3120613924394056E-5</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="2">
         <v>1.2916149713182185E-3</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="2">
         <v>3.2297808600098316E-4</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="2">
         <v>3.2293560418873826E-4</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="4">
         <v>1.4904720193326396E-5</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="2">
         <v>3.2446064261306974E-4</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="2">
         <v>1.2917563108905308E-3</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="2">
         <v>2.2677677573406767E-3</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="2">
         <v>2.2640098069880649E-3</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="4">
         <v>1.6144656118824671E-4</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="2">
         <v>1.2917377527195742E-3</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="4">
         <v>2.1528962545326279E-4</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="2">
         <v>1.2929355423052747E-3</v>
       </c>
-      <c r="C248" s="6">
+      <c r="C248" s="4">
         <v>2.0255990162782681E-4</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="2">
         <v>1.3057760745516706E-3</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="4">
         <v>2.176293457586122E-4</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="2">
         <v>1.2952212888837672E-3</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="4">
         <v>1.0793510740698056E-4</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="2">
         <v>1.2917623173258229E-3</v>
       </c>
-      <c r="C251" s="6">
+      <c r="C251" s="4">
         <v>2.1529371955430422E-4</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="2">
         <v>1.2947870223576584E-3</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="4">
         <v>3.7547842749112702E-4</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="2">
         <v>1.2917952350509259E-3</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="2">
         <v>1.2921745044923315E-3</v>
       </c>
-      <c r="C254" s="6">
+      <c r="C254" s="4">
         <v>1.7946868117949065E-4</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="2">
         <v>1.2918307880114411E-3</v>
       </c>
-      <c r="C255" s="6">
+      <c r="C255" s="4">
         <v>2.1530513133524062E-4</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="2">
         <v>1.2919547375522613E-3</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="2">
         <v>1.2917718359778715E-3</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="4">
         <v>1.6147147949723394E-4</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="2">
         <v>1.2917718359778715E-3</v>
       </c>
-      <c r="C258" s="6">
+      <c r="C258" s="4">
         <v>8.6118122398524805E-5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="2">
         <v>3.230367848899773E-4</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="4">
         <v>2.6919732074164765E-5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="2">
         <v>2.270155969169171E-3</v>
       </c>
-      <c r="C260" s="6">
+      <c r="C260" s="4">
         <v>3.0631779636312672E-4</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="2">
         <v>2.2656778478338836E-3</v>
       </c>
-      <c r="C261" s="6">
+      <c r="C261" s="4">
         <v>4.0360829910416186E-5</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="2">
         <v>1.2933697585042346E-3</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="4">
         <v>1.0657366810074893E-4</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="2">
         <v>2.2671011710365717E-3</v>
       </c>
-      <c r="C263" s="6">
+      <c r="C263" s="4">
         <v>3.4162857255787461E-4</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="2">
         <v>2.2654621259607811E-3</v>
       </c>
-      <c r="C264" s="6">
+      <c r="C264" s="4">
         <v>2.5240765239015038E-4</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="2">
         <v>2.2823174683450627E-3</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="4">
         <v>3.8027212885076059E-4</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="2">
         <v>2.2634494827854109E-3</v>
       </c>
-      <c r="C266" s="6">
+      <c r="C266" s="4">
         <v>3.7724158046423587E-4</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="2">
         <v>2.5498046928301116E-3</v>
       </c>
-      <c r="C267" s="6">
+      <c r="C267" s="4">
         <v>2.1248372440250922E-4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="2">
         <v>1.2931059239051869E-3</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="4">
         <v>2.1551765398419823E-4</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="2">
         <v>2.2603540855954014E-3</v>
       </c>
-      <c r="C269" s="6">
+      <c r="C269" s="4">
         <v>3.5488651102343174E-4</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="2">
         <v>1.2931059239051869E-3</v>
       </c>
-      <c r="C270" s="6">
+      <c r="C270" s="4">
         <v>1.5880248188309358E-4</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="2">
         <v>1.2922785924866216E-3</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="4">
         <v>1.7083016130502927E-4</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="2">
         <v>3.2310794723048892E-3</v>
       </c>
-      <c r="C272" s="6">
+      <c r="C272" s="4">
         <v>3.5886522672399742E-4</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="2">
         <v>3.229458651123159E-3</v>
       </c>
-      <c r="C273" s="6">
+      <c r="C273" s="4">
         <v>3.8445936322894733E-4</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="2">
         <v>1.292002739745445E-3</v>
       </c>
-      <c r="C274" s="6">
+      <c r="C274" s="4">
         <v>1.6660035328296577E-4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="2">
         <v>1.2915969699342491E-3</v>
       </c>
-      <c r="C275" s="6">
+      <c r="C275" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="2">
         <v>1.2918110237458513E-3</v>
       </c>
-      <c r="C276" s="6">
+      <c r="C276" s="4">
         <v>1.0765091864548758E-4</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="2">
         <v>1.2922880922256064E-3</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="4">
         <v>1.0769067435213383E-4</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="2">
         <v>2.2610557303136061E-3</v>
       </c>
-      <c r="C278" s="6">
+      <c r="C278" s="4">
         <v>3.7684262171893508E-4</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="2">
         <v>1.2920428790270124E-3</v>
       </c>
-      <c r="C279" s="6">
+      <c r="C279" s="4">
         <v>2.1534047983783581E-4</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="2">
         <v>1.3250668613622586E-3</v>
       </c>
-      <c r="C280" s="6">
+      <c r="C280" s="4">
         <v>2.2508971004272626E-4</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="2">
         <v>1.2921586385577475E-3</v>
       </c>
-      <c r="C281" s="6">
+      <c r="C281" s="4">
         <v>2.1535977309295834E-4</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="2">
         <v>1.2926159675206445E-3</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="4">
         <v>2.154359945867745E-4</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="2">
         <v>1.2926159675206445E-3</v>
       </c>
-      <c r="C283" s="6">
+      <c r="C283" s="4">
         <v>2.154359945867745E-4</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="2">
         <v>1.2946497720277873E-3</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C284" s="4">
         <v>2.1577496200463165E-4</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C285" s="6">
+      <c r="C285" s="4">
         <v>2.1526208158432935E-4</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="2">
         <v>3.2289312237649337E-3</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="4">
         <v>5.3815520396082329E-4</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="2">
         <v>1.3306690324511768E-3</v>
       </c>
-      <c r="C287" s="6">
+      <c r="C287" s="4">
         <v>7.9470511660278583E-7</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="2">
         <v>1.3032629735453157E-3</v>
       </c>
-      <c r="C288" s="6">
+      <c r="C288" s="4">
         <v>1.7222378850406225E-4</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="2">
         <v>3.2291318997717082E-3</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C289" s="4">
         <v>2.3554070896789314E-4</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="2">
         <v>1.2927467594925713E-3</v>
       </c>
-      <c r="C290" s="6">
+      <c r="C290" s="4">
         <v>2.1545779324876228E-4</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C291" s="6">
+      <c r="C291" s="4">
         <v>1.1494995156603165E-4</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="2">
         <v>1.2928446721186544E-3</v>
       </c>
-      <c r="C292" s="6">
+      <c r="C292" s="4">
         <v>2.0507191350847568E-4</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="2">
         <v>1.2915906635432976E-3</v>
       </c>
-      <c r="C293" s="6">
+      <c r="C293" s="4">
         <v>5.8121579859448389E-5</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C294" s="6">
+      <c r="C294" s="4">
         <v>1.033257991604779E-4</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C295" s="6">
+      <c r="C295" s="4">
         <v>2.1526208158432935E-4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="2">
         <v>1.2939813279318299E-3</v>
       </c>
-      <c r="C296" s="6">
+      <c r="C296" s="4">
         <v>2.1566355465530541E-4</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="2">
         <v>3.2291988724789185E-3</v>
       </c>
-      <c r="C297" s="6">
+      <c r="C297" s="4">
         <v>5.3819981207982076E-4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="2">
         <v>1.2917814909351997E-3</v>
       </c>
-      <c r="C298" s="6">
+      <c r="C298" s="4">
         <v>1.1410736503260927E-4</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="2">
         <v>1.2916179245992837E-3</v>
       </c>
-      <c r="C299" s="6">
+      <c r="C299" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C300" s="6">
+      <c r="C300" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="2">
         <v>1.2972134835158805E-3</v>
       </c>
-      <c r="C301" s="6">
+      <c r="C301" s="4">
         <v>2.8106292142844118E-5</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="2">
         <v>1.2916709371309765E-3</v>
       </c>
-      <c r="C302" s="6">
+      <c r="C302" s="4">
         <v>1.046253459076091E-4</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="2">
         <v>1.2983877535024783E-3</v>
       </c>
-      <c r="C303" s="6">
+      <c r="C303" s="4">
         <v>2.7379751751983514E-4</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="2">
         <v>1.2916709365528003E-3</v>
       </c>
-      <c r="C304" s="6">
+      <c r="C304" s="4">
         <v>7.3194686404658729E-5</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="2">
         <v>1.2917864032211974E-3</v>
       </c>
-      <c r="C305" s="6">
+      <c r="C305" s="4">
         <v>2.1529773387019997E-4</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C306" s="6">
+      <c r="C306" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="2">
         <v>1.2916630535364383E-3</v>
       </c>
-      <c r="C307" s="6">
+      <c r="C307" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="2">
         <v>1.2978322232623225E-3</v>
       </c>
-      <c r="C308" s="6">
+      <c r="C308" s="4">
         <v>2.2032082508456865E-4</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C309" s="6">
+      <c r="C309" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="2">
         <v>1.2922145441683108E-3</v>
       </c>
-      <c r="C310" s="6">
+      <c r="C310" s="4">
         <v>1.822353844339925E-4</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="2">
         <v>1.2922459148284869E-3</v>
       </c>
-      <c r="C311" s="6">
+      <c r="C311" s="4">
         <v>2.1537431913808155E-4</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="2">
         <v>1.2921368406881289E-3</v>
       </c>
-      <c r="C312" s="6">
+      <c r="C312" s="4">
         <v>1.8735984189977866E-4</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="2">
         <v>2.2623327800454134E-3</v>
       </c>
-      <c r="C313" s="6">
+      <c r="C313" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="2">
         <v>3.2305436637082449E-4</v>
       </c>
-      <c r="C314" s="6">
+      <c r="C314" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="2">
         <v>1.3056757489156804E-3</v>
       </c>
-      <c r="C315" s="6">
+      <c r="C315" s="4">
         <v>1.8518690257799669E-4</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="2">
         <v>3.2317656728128932E-4</v>
       </c>
-      <c r="C316" s="6">
+      <c r="C316" s="4">
         <v>4.793785748005781E-5</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="2">
         <v>1.2916435501976811E-3</v>
       </c>
-      <c r="C317" s="6">
+      <c r="C317" s="4">
         <v>1.3699249774823882E-4</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="2">
         <v>3.2326103380708585E-4</v>
       </c>
-      <c r="C318" s="6">
+      <c r="C318" s="4">
         <v>1.1852904572926493E-5</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="2">
         <v>1.2925947791054494E-3</v>
       </c>
-      <c r="C319" s="6">
+      <c r="C319" s="4">
         <v>2.1543246318424199E-4</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="2">
         <v>1.2916299031897056E-3</v>
       </c>
-      <c r="C320" s="6">
+      <c r="C320" s="4">
         <v>2.1527165053161803E-4</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="2">
         <v>1.291754244824759E-3</v>
       </c>
-      <c r="C321" s="6">
+      <c r="C321" s="4">
         <v>2.1529237413746026E-4</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="2">
         <v>1.2928211551075926E-3</v>
       </c>
-      <c r="C322" s="6">
+      <c r="C322" s="4">
         <v>2.154701925179325E-4</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="2">
         <v>1.2925947791054494E-3</v>
       </c>
-      <c r="C323" s="6">
+      <c r="C323" s="4">
         <v>2.1543246318424199E-4</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="2">
         <v>1.2922540159056241E-3</v>
       </c>
-      <c r="C324" s="6">
+      <c r="C324" s="4">
         <v>2.1537566931760442E-4</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="2">
         <v>1.2929979276355863E-3</v>
       </c>
-      <c r="C325" s="6">
+      <c r="C325" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="2">
         <v>1.3361624626663723E-3</v>
       </c>
-      <c r="C326" s="6">
+      <c r="C326" s="4">
         <v>2.2269374377772915E-4</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="2">
         <v>3.2358604145567955E-4</v>
       </c>
-      <c r="C327" s="6">
+      <c r="C327" s="4">
         <v>5.3931006909280029E-5</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="2">
         <v>3.2415858251805258E-4</v>
       </c>
-      <c r="C328" s="6">
+      <c r="C328" s="4">
         <v>5.4026430419675535E-5</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="2">
         <v>3.2377308929156597E-4</v>
       </c>
-      <c r="C329" s="6">
+      <c r="C329" s="4">
         <v>5.3962181548594432E-5</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="2">
         <v>3.2452356384587305E-4</v>
       </c>
-      <c r="C330" s="6">
+      <c r="C330" s="4">
         <v>2.7043630320489412E-5</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="2">
         <v>1.29165768030593E-3</v>
       </c>
-      <c r="C331" s="6">
+      <c r="C331" s="4">
         <v>2.1527628005098875E-4</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="2">
         <v>1.2920030787342423E-3</v>
       </c>
-      <c r="C332" s="6">
+      <c r="C332" s="4">
         <v>2.1533384645570748E-4</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="2">
         <v>1.2925408814400644E-3</v>
       </c>
-      <c r="C333" s="6">
+      <c r="C333" s="4">
         <v>2.1542348024001116E-4</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="2">
         <v>1.2916574531304631E-3</v>
       </c>
-      <c r="C334" s="6">
+      <c r="C334" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="2">
         <v>3.2289794985515758E-4</v>
       </c>
-      <c r="C335" s="6">
+      <c r="C335" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="2">
         <v>2.2606819847803754E-3</v>
       </c>
-      <c r="C336" s="6">
+      <c r="C336" s="4">
         <v>2.1458536934899433E-4</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="2">
         <v>3.2430389058941207E-3</v>
       </c>
-      <c r="C337" s="6">
+      <c r="C337" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="2">
         <v>3.2308366317209186E-3</v>
       </c>
-      <c r="C338" s="6">
+      <c r="C338" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="2">
         <v>3.2297478271746415E-3</v>
       </c>
-      <c r="C339" s="6">
+      <c r="C339" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="2">
         <v>3.2303969221926143E-3</v>
       </c>
-      <c r="C340" s="6">
+      <c r="C340" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C341" s="6">
+      <c r="C341" s="4">
         <v>3.0207768524215885E-5</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="2">
         <v>2.2607393351996986E-3</v>
       </c>
-      <c r="C342" s="6">
+      <c r="C342" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="2">
         <v>2.2604525831030836E-3</v>
       </c>
-      <c r="C343" s="6">
+      <c r="C343" s="4">
         <v>2.6539387734950928E-4</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="2">
         <v>2.2620010444248028E-3</v>
       </c>
-      <c r="C344" s="6">
+      <c r="C344" s="4">
         <v>3.5458394750442909E-4</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C345" s="6">
+      <c r="C345" s="4">
         <v>5.4502527039436549E-5</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="2">
         <v>2.260391296936822E-3</v>
       </c>
-      <c r="C346" s="6">
+      <c r="C346" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="2">
         <v>2.2602698087424108E-3</v>
       </c>
-      <c r="C347" s="6">
+      <c r="C347" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="2">
         <v>2.260257840671106E-3</v>
       </c>
-      <c r="C348" s="6">
+      <c r="C348" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="2">
         <v>2.2603266570811091E-3</v>
       </c>
-      <c r="C349" s="6">
+      <c r="C349" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="2">
         <v>2.260362561295024E-3</v>
       </c>
-      <c r="C350" s="6">
+      <c r="C350" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="2">
         <v>3.2297781701187312E-3</v>
       </c>
-      <c r="C351" s="6">
+      <c r="C351" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="2">
         <v>2.2617954150466742E-3</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C352" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="2">
         <v>3.2562379424132212E-3</v>
       </c>
-      <c r="C353" s="6">
+      <c r="C353" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="2">
         <v>2.2603416171702406E-3</v>
       </c>
-      <c r="C354" s="6">
+      <c r="C354" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C355" s="6">
+      <c r="C355" s="4">
         <v>3.2876390641970132E-4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="2">
         <v>3.2307813547701753E-3</v>
       </c>
-      <c r="C356" s="6">
+      <c r="C356" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C357" s="6">
+      <c r="C357" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="2">
         <v>3.234645093233865E-4</v>
       </c>
-      <c r="C358" s="6">
+      <c r="C358" s="4">
         <v>2.2642515652637056E-5</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="2">
         <v>2.2612366054206722E-3</v>
       </c>
-      <c r="C359" s="6">
+      <c r="C359" s="4">
         <v>3.6179785686730754E-4</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="2">
         <v>1.2923077750442017E-3</v>
       </c>
-      <c r="C360" s="6">
+      <c r="C360" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="2">
         <v>3.235005327801819E-4</v>
       </c>
-      <c r="C361" s="6">
+      <c r="C361" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C362" s="6">
+      <c r="C362" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="2">
         <v>3.2410794318387038E-4</v>
       </c>
-      <c r="C363" s="6">
+      <c r="C363" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="2">
         <v>3.2295557099163426E-3</v>
       </c>
-      <c r="C364" s="6">
+      <c r="C364" s="4">
         <v>6.3028019319210437E-5</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="2">
         <v>3.2440652705324578E-4</v>
       </c>
-      <c r="C365" s="6">
+      <c r="C365" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="2">
         <v>1.2921798999096621E-3</v>
       </c>
-      <c r="C366" s="6">
+      <c r="C366" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="2">
         <v>1.2921157991805769E-3</v>
       </c>
-      <c r="C367" s="6">
+      <c r="C367" s="4">
         <v>9.9393523013890499E-5</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="2">
         <v>1.291742273779287E-3</v>
       </c>
-      <c r="C368" s="6">
+      <c r="C368" s="4">
         <v>1.6146778422241088E-4</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="2">
         <v>2.2608856761871287E-3</v>
       </c>
-      <c r="C369" s="6">
+      <c r="C369" s="4">
         <v>2.2608856761871288E-4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="2">
         <v>2.2608856761871287E-3</v>
       </c>
-      <c r="C370" s="6">
+      <c r="C370" s="4">
         <v>3.7681427936452218E-4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C371" s="6">
+      <c r="C371" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="2">
         <v>1.2925814259571418E-3</v>
       </c>
-      <c r="C372" s="6">
+      <c r="C372" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="2">
         <v>1.2918690655530074E-3</v>
       </c>
-      <c r="C373" s="6">
+      <c r="C373" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="2">
         <v>1.2917309443938921E-3</v>
       </c>
-      <c r="C374" s="6">
+      <c r="C374" s="4">
         <v>3.8751928331816762E-5</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C375" s="6">
+      <c r="C375" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="2">
         <v>2.2604631298193457E-3</v>
       </c>
-      <c r="C376" s="6">
+      <c r="C376" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="2">
         <v>1.2915811083955104E-3</v>
       </c>
-      <c r="C377" s="6">
+      <c r="C377" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="2">
         <v>1.2929239523820379E-3</v>
       </c>
-      <c r="C378" s="6">
+      <c r="C378" s="4">
         <v>4.2020028452416227E-6</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="2">
         <v>2.2618488045810198E-3</v>
       </c>
-      <c r="C379" s="6">
+      <c r="C379" s="4">
         <v>5.7972147947095215E-5</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="2">
         <v>3.2375020279683307E-4</v>
       </c>
-      <c r="C380" s="6">
+      <c r="C380" s="4">
         <v>1.6187510139841654E-5</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="2">
         <v>2.2603431108037713E-3</v>
       </c>
-      <c r="C381" s="6">
+      <c r="C381" s="4">
         <v>8.4386142803340728E-5</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="2">
         <v>3.2370243497607836E-4</v>
       </c>
-      <c r="C382" s="6">
+      <c r="C382" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="2">
         <v>3.2578960957500792E-4</v>
       </c>
-      <c r="C383" s="6">
+      <c r="C383" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="2">
         <v>1.2924442162932383E-3</v>
       </c>
-      <c r="C384" s="6">
+      <c r="C384" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="2">
         <v>1.2917179812099824E-3</v>
       </c>
-      <c r="C385" s="6">
+      <c r="C385" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="2">
         <v>1.291645235357978E-3</v>
       </c>
-      <c r="C386" s="6">
+      <c r="C386" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="2">
         <v>3.2293396425776412E-3</v>
       </c>
-      <c r="C387" s="6">
+      <c r="C387" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="2">
         <v>1.291645235357978E-3</v>
       </c>
-      <c r="C388" s="6">
+      <c r="C388" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="2">
         <v>2.2605900220783871E-3</v>
       </c>
-      <c r="C389" s="6">
+      <c r="C389" s="4">
         <v>8.0438172564752488E-4</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="2">
         <v>1.2938020174779608E-3</v>
       </c>
-      <c r="C390" s="6">
+      <c r="C390" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="2">
         <v>2.2622379170699988E-3</v>
       </c>
-      <c r="C391" s="6">
+      <c r="C391" s="4">
         <v>4.3609483504203762E-4</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="2">
         <v>1.3294540242204463E-3</v>
       </c>
-      <c r="C392" s="6">
+      <c r="C392" s="4">
         <v>2.2840020136107267E-4</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="2">
         <v>3.2525306260998629E-3</v>
       </c>
-      <c r="C393" s="6">
+      <c r="C393" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C394" s="6">
+      <c r="C394" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="2">
         <v>3.2292471210946436E-3</v>
       </c>
-      <c r="C395" s="6">
+      <c r="C395" s="4">
         <v>2.1528314140630965E-4</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="2">
         <v>1.5825356624249018E-3</v>
       </c>
-      <c r="C396" s="6">
+      <c r="C396" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="2">
         <v>3.2294764448846545E-3</v>
       </c>
-      <c r="C397" s="6">
+      <c r="C397" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="2">
         <v>2.2821742891575439E-3</v>
       </c>
-      <c r="C398" s="6">
+      <c r="C398" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="2">
         <v>2.2609268877192418E-3</v>
       </c>
-      <c r="C399" s="6">
+      <c r="C399" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="2">
         <v>4.1980087891821437E-3</v>
       </c>
-      <c r="C400" s="6">
+      <c r="C400" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="2">
         <v>2.2642274273000813E-3</v>
       </c>
-      <c r="C401" s="6">
+      <c r="C401" s="4">
         <v>1.3247139719888433E-3</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="2">
         <v>2.2610767285718737E-3</v>
       </c>
-      <c r="C402" s="6">
+      <c r="C402" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="2">
         <v>1.2916354221191972E-3</v>
       </c>
-      <c r="C403" s="6">
+      <c r="C403" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="2">
         <v>3.229002367071417E-3</v>
       </c>
-      <c r="C404" s="6">
+      <c r="C404" s="4">
         <v>6.4580047341428345E-4</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="2">
         <v>2.2603229999419365E-3</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="4">
         <v>3.9027159711227648E-4</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C406" s="6">
+      <c r="C406" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="2">
         <v>1.2919359702524538E-3</v>
       </c>
-      <c r="C407" s="6">
+      <c r="C407" s="4">
         <v>2.294478283168358E-4</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408" s="2">
         <v>3.2326796189630118E-4</v>
       </c>
-      <c r="C408" s="6">
+      <c r="C408" s="4">
         <v>5.3877993649383632E-5</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B409" s="4">
+      <c r="B409" s="2">
         <v>1.2939237555847677E-3</v>
       </c>
-      <c r="C409" s="6">
+      <c r="C409" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410" s="2">
         <v>3.2301450696010892E-4</v>
       </c>
-      <c r="C410" s="6">
+      <c r="C410" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B411" s="4">
+      <c r="B411" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C411" s="6">
+      <c r="C411" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412" s="2">
         <v>1.3026245759536386E-3</v>
       </c>
-      <c r="C412" s="6">
+      <c r="C412" s="4">
         <v>2.4210358336983862E-4</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B413" s="4">
+      <c r="B413" s="2">
         <v>1.2949481567026244E-3</v>
       </c>
-      <c r="C413" s="6">
+      <c r="C413" s="4">
         <v>2.5031096644551656E-4</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="2">
         <v>1.292035927457736E-3</v>
       </c>
-      <c r="C414" s="6">
+      <c r="C414" s="4">
         <v>3.23008981864434E-4</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="2">
         <v>1.2978872408033147E-3</v>
       </c>
-      <c r="C415" s="6">
+      <c r="C415" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416" s="2">
         <v>1.2921801838789953E-3</v>
       </c>
-      <c r="C416" s="6">
+      <c r="C416" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B417" s="4">
+      <c r="B417" s="2">
         <v>1.2923061672813305E-3</v>
       </c>
-      <c r="C417" s="6">
+      <c r="C417" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="2">
         <v>1.2975936482194517E-3</v>
       </c>
-      <c r="C418" s="6">
+      <c r="C418" s="4">
         <v>2.070849549542775E-4</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B419" s="4">
+      <c r="B419" s="2">
         <v>1.2927049722426152E-3</v>
       </c>
-      <c r="C419" s="6">
+      <c r="C419" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420" s="2">
         <v>1.291996285338823E-3</v>
       </c>
-      <c r="C420" s="6">
+      <c r="C420" s="4">
         <v>1.174542077580748E-4</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B421" s="4">
+      <c r="B421" s="2">
         <v>1.2921290693990212E-3</v>
       </c>
-      <c r="C421" s="6">
+      <c r="C421" s="4">
         <v>2.1535484489983732E-5</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="2">
         <v>3.2298615073004573E-4</v>
       </c>
-      <c r="C422" s="6">
+      <c r="C422" s="4">
         <v>8.0746537682511432E-5</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B423" s="4">
+      <c r="B423" s="2">
         <v>3.2298886475672474E-3</v>
       </c>
-      <c r="C423" s="6">
+      <c r="C423" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424" s="2">
         <v>1.2922183975129179E-3</v>
       </c>
-      <c r="C424" s="6">
+      <c r="C424" s="4">
         <v>1.0418510829947901E-4</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B425" s="4">
+      <c r="B425" s="2">
         <v>1.2918672905959821E-3</v>
       </c>
-      <c r="C425" s="6">
+      <c r="C425" s="4">
         <v>4.5215355170859377E-5</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426" s="2">
         <v>1.2924222819814962E-3</v>
       </c>
-      <c r="C426" s="6">
+      <c r="C426" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B427" s="4">
+      <c r="B427" s="2">
         <v>1.2916127651604688E-3</v>
       </c>
-      <c r="C427" s="6">
+      <c r="C427" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428" s="2">
         <v>1.2916038150150254E-3</v>
       </c>
-      <c r="C428" s="6">
+      <c r="C428" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="2">
         <v>1.2917420498665746E-3</v>
       </c>
-      <c r="C429" s="6">
+      <c r="C429" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430" s="2">
         <v>1.2915903897968604E-3</v>
       </c>
-      <c r="C430" s="6">
+      <c r="C430" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B431" s="4">
+      <c r="B431" s="2">
         <v>1.2915856202479401E-3</v>
       </c>
-      <c r="C431" s="6">
+      <c r="C431" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432" s="2">
         <v>1.2915925718172165E-3</v>
       </c>
-      <c r="C432" s="6">
+      <c r="C432" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B433" s="4">
+      <c r="B433" s="2">
         <v>1.2915856202479401E-3</v>
       </c>
-      <c r="C433" s="6">
+      <c r="C433" s="4">
         <v>1.4368890025258333E-4</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434" s="2">
         <v>3.2308752494230035E-4</v>
       </c>
-      <c r="C434" s="6">
+      <c r="C434" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B435" s="4">
+      <c r="B435" s="2">
         <v>2.2605621186892011E-3</v>
       </c>
-      <c r="C435" s="6">
+      <c r="C435" s="4">
         <v>5.6514052967230027E-4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="2">
         <v>1.291608695595955E-3</v>
       </c>
-      <c r="C436" s="6">
+      <c r="C436" s="4">
         <v>3.2290217389898876E-4</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B437" s="4">
+      <c r="B437" s="2">
         <v>1.2916033853694242E-3</v>
       </c>
-      <c r="C437" s="6">
+      <c r="C437" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438" s="2">
         <v>1.2917108983646044E-3</v>
       </c>
-      <c r="C438" s="6">
+      <c r="C438" s="4">
         <v>1.6146386229557556E-4</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="4">
+      <c r="B439" s="2">
         <v>2.2603145076535575E-3</v>
       </c>
-      <c r="C439" s="6">
+      <c r="C439" s="4">
         <v>5.6507862691338936E-4</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440" s="2">
         <v>2.2603604749053979E-3</v>
       </c>
-      <c r="C440" s="6">
+      <c r="C440" s="4">
         <v>2.8254505936317473E-4</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B441" s="4">
+      <c r="B441" s="2">
         <v>1.2918943373693486E-3</v>
       </c>
-      <c r="C441" s="6">
+      <c r="C441" s="4">
         <v>1.2303755593993793E-4</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442" s="2">
         <v>1.2917668920717803E-3</v>
       </c>
-      <c r="C442" s="6">
+      <c r="C442" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B443" s="4">
+      <c r="B443" s="2">
         <v>1.2921350838694982E-3</v>
       </c>
-      <c r="C443" s="6">
+      <c r="C443" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="2">
         <v>1.2917392306190348E-3</v>
       </c>
-      <c r="C444" s="6">
+      <c r="C444" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B445" s="4">
+      <c r="B445" s="2">
         <v>2.2606576267218434E-3</v>
       </c>
-      <c r="C445" s="6">
+      <c r="C445" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="2">
         <v>2.2602704723586786E-3</v>
       </c>
-      <c r="C446" s="6">
+      <c r="C446" s="4">
         <v>2.2602704723586786E-5</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="2">
         <v>2.2602642671176033E-3</v>
       </c>
-      <c r="C447" s="6">
+      <c r="C447" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448" s="2">
         <v>1.2917826067378496E-3</v>
       </c>
-      <c r="C448" s="6">
+      <c r="C448" s="4">
         <v>1.1496865199966861E-4</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B449" s="4">
+      <c r="B449" s="2">
         <v>2.2605310924838262E-3</v>
       </c>
-      <c r="C449" s="6">
+      <c r="C449" s="4">
         <v>1.2521967095945809E-3</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="2">
         <v>1.2920495579857288E-3</v>
       </c>
-      <c r="C450" s="6">
+      <c r="C450" s="4">
         <v>1.033639646388583E-4</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B451" s="4">
+      <c r="B451" s="2">
         <v>1.2922179631590825E-3</v>
       </c>
-      <c r="C451" s="6">
+      <c r="C451" s="4">
         <v>2.5844359263181652E-4</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452" s="2">
         <v>1.2916296105052829E-3</v>
       </c>
-      <c r="C452" s="6">
+      <c r="C452" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B453" s="4">
+      <c r="B453" s="2">
         <v>1.2918636239533765E-3</v>
       </c>
-      <c r="C453" s="6">
+      <c r="C453" s="4">
         <v>2.2904392900362526E-5</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454" s="2">
         <v>1.2916540909335584E-3</v>
       </c>
-      <c r="C454" s="6">
+      <c r="C454" s="4">
         <v>6.3660094481725392E-5</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B455" s="4">
+      <c r="B455" s="2">
         <v>3.2289463309334598E-3</v>
       </c>
-      <c r="C455" s="6">
+      <c r="C455" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456" s="2">
         <v>1.2920495579857288E-3</v>
       </c>
-      <c r="C456" s="6">
+      <c r="C456" s="4">
         <v>6.4602477899286444E-5</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="2">
         <v>1.291593898521941E-3</v>
       </c>
-      <c r="C457" s="6">
+      <c r="C457" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="2">
         <v>1.2915983875091603E-3</v>
       </c>
-      <c r="C458" s="6">
+      <c r="C458" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B459" s="4">
+      <c r="B459" s="2">
         <v>1.2917235611912296E-3</v>
       </c>
-      <c r="C459" s="6">
+      <c r="C459" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460" s="2">
         <v>1.2925912692444911E-3</v>
       </c>
-      <c r="C460" s="6">
+      <c r="C460" s="4">
         <v>1.974036315574262E-4</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="2">
         <v>1.291768332932177E-3</v>
       </c>
-      <c r="C461" s="6">
+      <c r="C461" s="4">
         <v>3.2294208323304426E-4</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462" s="2">
         <v>1.2916214503625246E-3</v>
       </c>
-      <c r="C462" s="6">
+      <c r="C462" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B463" s="4">
+      <c r="B463" s="2">
         <v>1.2922888078283261E-3</v>
       </c>
-      <c r="C463" s="6">
+      <c r="C463" s="4">
         <v>2.6866004162746747E-4</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464" s="2">
         <v>4.1987328376991715E-3</v>
       </c>
-      <c r="C464" s="6">
+      <c r="C464" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B465" s="4">
+      <c r="B465" s="2">
         <v>4.1976253572997401E-3</v>
       </c>
-      <c r="C465" s="6">
+      <c r="C465" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466" s="2">
         <v>4.1977434885423458E-3</v>
       </c>
-      <c r="C466" s="6">
+      <c r="C466" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B467" s="4">
+      <c r="B467" s="2">
         <v>2.2607011373301862E-3</v>
       </c>
-      <c r="C467" s="6">
+      <c r="C467" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468" s="2">
         <v>2.2603869462881035E-3</v>
       </c>
-      <c r="C468" s="6">
+      <c r="C468" s="4">
         <v>4.5207738925762071E-4</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B469" s="4">
+      <c r="B469" s="2">
         <v>4.1994416251548089E-3</v>
       </c>
-      <c r="C469" s="6">
+      <c r="C469" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B470" s="2">
         <v>1.2926332694130516E-3</v>
       </c>
-      <c r="C470" s="6">
+      <c r="C470" s="4">
         <v>5.4874966668772929E-4</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B471" s="4">
+      <c r="B471" s="2">
         <v>1.292485532768811E-3</v>
       </c>
-      <c r="C471" s="6">
+      <c r="C471" s="4">
         <v>2.1530654833373732E-4</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B472" s="4">
+      <c r="B472" s="2">
         <v>1.2925720615587942E-3</v>
       </c>
-      <c r="C472" s="6">
+      <c r="C472" s="4">
         <v>2.080450327576153E-4</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B473" s="4">
+      <c r="B473" s="2">
         <v>1.3016159653971829E-3</v>
       </c>
-      <c r="C473" s="6">
+      <c r="C473" s="4">
         <v>1.3261607236018117E-4</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B474" s="4">
+      <c r="B474" s="2">
         <v>1.2919451959598118E-3</v>
       </c>
-      <c r="C474" s="6">
+      <c r="C474" s="4">
         <v>1.9670794803654658E-4</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B475" s="4">
+      <c r="B475" s="2">
         <v>1.2916770006812127E-3</v>
       </c>
-      <c r="C475" s="6">
+      <c r="C475" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B476" s="4">
+      <c r="B476" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C476" s="6">
+      <c r="C476" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B477" s="4">
+      <c r="B477" s="2">
         <v>1.2919223747448177E-3</v>
       </c>
-      <c r="C477" s="6">
+      <c r="C477" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B478" s="4">
+      <c r="B478" s="2">
         <v>1.2919123440039326E-3</v>
       </c>
-      <c r="C478" s="6">
+      <c r="C478" s="4">
         <v>1.3487564871401058E-4</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B479" s="4">
+      <c r="B479" s="2">
         <v>1.2922521985018916E-3</v>
       </c>
-      <c r="C479" s="6">
+      <c r="C479" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="4">
+      <c r="B480" s="2">
         <v>1.292082271252912E-3</v>
       </c>
-      <c r="C480" s="6">
+      <c r="C480" s="4">
         <v>1.0875025783045347E-4</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B481" s="4">
+      <c r="B481" s="2">
         <v>1.2941213982406664E-3</v>
       </c>
-      <c r="C481" s="6">
+      <c r="C481" s="4">
         <v>3.2487739042078945E-4</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482" s="2">
         <v>1.2918042084818547E-3</v>
       </c>
-      <c r="C482" s="6">
+      <c r="C482" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B483" s="4">
+      <c r="B483" s="2">
         <v>1.2919780894469633E-3</v>
       </c>
-      <c r="C483" s="6">
+      <c r="C483" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="2" t="s">
+      <c r="A484" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484" s="2">
         <v>1.2917083355516704E-3</v>
       </c>
-      <c r="C484" s="6">
+      <c r="C484" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="2">
         <v>2.268110974864864E-3</v>
       </c>
-      <c r="C485" s="6">
+      <c r="C485" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486" s="2">
         <v>2.2603522538949873E-3</v>
       </c>
-      <c r="C486" s="6">
+      <c r="C486" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B487" s="4">
+      <c r="B487" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C487" s="6">
+      <c r="C487" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B488" s="4">
+      <c r="B488" s="2">
         <v>2.2607248797332125E-3</v>
       </c>
-      <c r="C488" s="6">
+      <c r="C488" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B489" s="4">
+      <c r="B489" s="2">
         <v>4.1989787205343986E-3</v>
       </c>
-      <c r="C489" s="6">
+      <c r="C489" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C490" s="6">
+      <c r="C490" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B491" s="4">
+      <c r="B491" s="2">
         <v>2.2617580085816645E-3</v>
       </c>
-      <c r="C491" s="6">
+      <c r="C491" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B492" s="2">
         <v>4.1994062210325665E-3</v>
       </c>
-      <c r="C492" s="6">
+      <c r="C492" s="4">
         <v>6.7732358403751005E-4</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B493" s="4">
+      <c r="B493" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C493" s="6">
+      <c r="C493" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B494" s="4">
+      <c r="B494" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C494" s="6">
+      <c r="C494" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="2">
         <v>1.2916728867655074E-3</v>
       </c>
-      <c r="C495" s="6">
+      <c r="C495" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="4">
+      <c r="B496" s="2">
         <v>1.2958280563923087E-3</v>
       </c>
-      <c r="C496" s="6">
+      <c r="C496" s="4">
         <v>5.2912978969352567E-4</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="2" t="s">
+      <c r="A497" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B497" s="4">
+      <c r="B497" s="2">
         <v>2.2692117106431157E-3</v>
       </c>
-      <c r="C497" s="6">
+      <c r="C497" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B498" s="4">
+      <c r="B498" s="2">
         <v>2.2642363041363175E-3</v>
       </c>
-      <c r="C498" s="6">
+      <c r="C498" s="4">
         <v>3.216439463389319E-5</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B499" s="4">
+      <c r="B499" s="2">
         <v>2.2617580085816645E-3</v>
       </c>
-      <c r="C499" s="6">
+      <c r="C499" s="4">
         <v>1.7412305583209418E-5</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B500" s="4">
+      <c r="B500" s="2">
         <v>4.2303108551432532E-3</v>
       </c>
-      <c r="C500" s="6">
+      <c r="C500" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="2" t="s">
+      <c r="A501" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B501" s="4">
+      <c r="B501" s="2">
         <v>2.2609815269710584E-3</v>
       </c>
-      <c r="C501" s="6">
+      <c r="C501" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502" s="2">
         <v>4.1977109881539479E-3</v>
       </c>
-      <c r="C502" s="6">
+      <c r="C502" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="2" t="s">
+      <c r="A503" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B503" s="4">
+      <c r="B503" s="2">
         <v>1.2942667764115003E-3</v>
       </c>
-      <c r="C503" s="6">
+      <c r="C503" s="4">
         <v>1.5531201316938004E-4</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B504" s="4">
+      <c r="B504" s="2">
         <v>1.2942667764115003E-3</v>
       </c>
-      <c r="C504" s="6">
+      <c r="C504" s="4">
         <v>3.7274883160651208E-5</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B505" s="4">
+      <c r="B505" s="2">
         <v>1.2919171341591498E-3</v>
       </c>
-      <c r="C505" s="6">
+      <c r="C505" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B506" s="4">
+      <c r="B506" s="2">
         <v>1.2933507381713944E-3</v>
       </c>
-      <c r="C506" s="6">
+      <c r="C506" s="4">
         <v>1.7023369827087013E-4</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B507" s="4">
+      <c r="B507" s="2">
         <v>2.2605802592165327E-3</v>
       </c>
-      <c r="C507" s="6">
+      <c r="C507" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B508" s="4">
+      <c r="B508" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C508" s="6">
+      <c r="C508" s="4">
         <v>1.3453880099020603E-5</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B509" s="4">
+      <c r="B509" s="2">
         <v>2.2603097863794237E-3</v>
       </c>
-      <c r="C509" s="6">
+      <c r="C509" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="2" t="s">
+      <c r="A510" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B510" s="4">
+      <c r="B510" s="2">
         <v>2.262513433840054E-3</v>
       </c>
-      <c r="C510" s="6">
+      <c r="C510" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="2" t="s">
+      <c r="A511" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B511" s="4">
+      <c r="B511" s="2">
         <v>2.2603001314220957E-3</v>
       </c>
-      <c r="C511" s="6">
+      <c r="C511" s="4">
         <v>3.4785138386171237E-4</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B512" s="4">
+      <c r="B512" s="2">
         <v>2.2603001314220957E-3</v>
       </c>
-      <c r="C512" s="6">
+      <c r="C512" s="4">
         <v>5.6507503285552392E-4</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B513" s="4">
+      <c r="B513" s="2">
         <v>1.2919584251842693E-3</v>
       </c>
-      <c r="C513" s="6">
+      <c r="C513" s="4">
         <v>3.2298960629606731E-4</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B514" s="4">
+      <c r="B514" s="2">
         <v>1.2917854528753363E-3</v>
       </c>
-      <c r="C514" s="6">
+      <c r="C514" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B515" s="4">
+      <c r="B515" s="2">
         <v>3.2289949464833014E-4</v>
       </c>
-      <c r="C515" s="6">
+      <c r="C515" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="4">
+      <c r="B516" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C516" s="6">
+      <c r="C516" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B517" s="4">
+      <c r="B517" s="2">
         <v>1.2916202815447492E-3</v>
       </c>
-      <c r="C517" s="6">
+      <c r="C517" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518" s="2">
         <v>1.2916680735835246E-3</v>
       </c>
-      <c r="C518" s="6">
+      <c r="C518" s="4">
         <v>1.7670019246622618E-4</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B519" s="4">
+      <c r="B519" s="2">
         <v>1.2932337961748235E-3</v>
       </c>
-      <c r="C519" s="6">
+      <c r="C519" s="4">
         <v>2.212866717899141E-4</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520" s="2">
         <v>1.2925692735072836E-3</v>
       </c>
-      <c r="C520" s="6">
+      <c r="C520" s="4">
         <v>5.7803697911245724E-5</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" s="2" t="s">
+      <c r="A521" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B521" s="4">
+      <c r="B521" s="2">
         <v>1.2947325184197234E-3</v>
       </c>
-      <c r="C521" s="6">
+      <c r="C521" s="4">
         <v>2.8614667600841194E-4</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B522" s="4">
+      <c r="B522" s="2">
         <v>1.2922370121735136E-3</v>
       </c>
-      <c r="C522" s="6">
+      <c r="C522" s="4">
         <v>1.867869863050812E-5</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B523" s="4">
+      <c r="B523" s="2">
         <v>1.2916362122243411E-3</v>
       </c>
-      <c r="C523" s="6">
+      <c r="C523" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B524" s="4">
+      <c r="B524" s="2">
         <v>1.2916043508651573E-3</v>
       </c>
-      <c r="C524" s="6">
+      <c r="C524" s="4">
         <v>3.2290108771628931E-4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B525" s="4">
+      <c r="B525" s="2">
         <v>2.2604527565701304E-3</v>
       </c>
-      <c r="C525" s="6">
+      <c r="C525" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="2" t="s">
+      <c r="A526" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B526" s="4">
+      <c r="B526" s="2">
         <v>2.2852636885309723E-3</v>
       </c>
-      <c r="C526" s="6">
+      <c r="C526" s="4">
         <v>8.2308226069971518E-6</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B527" s="4">
+      <c r="B527" s="2">
         <v>1.2926932567833664E-3</v>
       </c>
-      <c r="C527" s="6">
+      <c r="C527" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="2" t="s">
+      <c r="A528" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B528" s="4">
+      <c r="B528" s="2">
         <v>2.2613049863994751E-3</v>
       </c>
-      <c r="C528" s="6">
+      <c r="C528" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="2" t="s">
+      <c r="A529" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B529" s="4">
+      <c r="B529" s="2">
         <v>2.2606667671926451E-3</v>
       </c>
-      <c r="C529" s="6">
+      <c r="C529" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" s="2" t="s">
+      <c r="A530" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B530" s="4">
+      <c r="B530" s="2">
         <v>2.2706650631105336E-3</v>
       </c>
-      <c r="C530" s="6">
+      <c r="C530" s="4">
         <v>2.9442926818066807E-4</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B531" s="4">
+      <c r="B531" s="2">
         <v>2.2602533545075009E-3</v>
       </c>
-      <c r="C531" s="6">
+      <c r="C531" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B532" s="4">
+      <c r="B532" s="2">
         <v>2.2628646146225498E-3</v>
       </c>
-      <c r="C532" s="6">
+      <c r="C532" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B533" s="4">
+      <c r="B533" s="2">
         <v>2.2623264094214124E-3</v>
       </c>
-      <c r="C533" s="6">
+      <c r="C533" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="2" t="s">
+      <c r="A534" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B534" s="4">
+      <c r="B534" s="2">
         <v>2.2623264094214124E-3</v>
       </c>
-      <c r="C534" s="6">
+      <c r="C534" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" s="2" t="s">
+      <c r="A535" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B535" s="4">
+      <c r="B535" s="2">
         <v>1.2920841069493708E-3</v>
       </c>
-      <c r="C535" s="6">
+      <c r="C535" s="4">
         <v>2.2831000724736505E-4</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B536" s="4">
+      <c r="B536" s="2">
         <v>2.2633357467969498E-3</v>
       </c>
-      <c r="C536" s="6">
+      <c r="C536" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B537" s="4">
+      <c r="B537" s="2">
         <v>2.2603170839823709E-3</v>
       </c>
-      <c r="C537" s="6">
+      <c r="C537" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B538" s="4">
+      <c r="B538" s="2">
         <v>2.2760057766862906E-3</v>
       </c>
-      <c r="C538" s="6">
+      <c r="C538" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" s="2" t="s">
+      <c r="A539" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B539" s="4">
+      <c r="B539" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C539" s="6">
+      <c r="C539" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B540" s="4">
+      <c r="B540" s="2">
         <v>2.2619356371246114E-3</v>
       </c>
-      <c r="C540" s="6">
+      <c r="C540" s="4">
         <v>1.1309678185623057E-5</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="4">
+      <c r="B541" s="2">
         <v>1.2915724895059737E-3</v>
       </c>
-      <c r="C541" s="6">
+      <c r="C541" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B542" s="4">
+      <c r="B542" s="2">
         <v>2.2619356371246114E-3</v>
       </c>
-      <c r="C542" s="6">
+      <c r="C542" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" s="2" t="s">
+      <c r="A543" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B543" s="4">
+      <c r="B543" s="2">
         <v>1.2920830046811249E-3</v>
       </c>
-      <c r="C543" s="6">
+      <c r="C543" s="4">
         <v>1.1404036954359496E-3</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" s="2" t="s">
+      <c r="A544" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B544" s="4">
+      <c r="B544" s="2">
         <v>2.2618705407639397E-3</v>
       </c>
-      <c r="C544" s="6">
+      <c r="C544" s="4">
         <v>4.8716393894027811E-4</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B545" s="4">
+      <c r="B545" s="2">
         <v>1.2920628938196746E-3</v>
       </c>
-      <c r="C545" s="6">
+      <c r="C545" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546" s="2">
         <v>2.2602518566354536E-3</v>
       </c>
-      <c r="C546" s="6">
+      <c r="C546" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" s="2" t="s">
+      <c r="A547" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B547" s="4">
+      <c r="B547" s="2">
         <v>2.260515139076459E-3</v>
       </c>
-      <c r="C547" s="6">
+      <c r="C547" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B548" s="4">
+      <c r="B548" s="2">
         <v>4.2088557764886469E-3</v>
       </c>
-      <c r="C548" s="6">
+      <c r="C548" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="4">
+      <c r="B549" s="2">
         <v>3.2316122231190514E-4</v>
       </c>
-      <c r="C549" s="6">
+      <c r="C549" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B550" s="4">
+      <c r="B550" s="2">
         <v>2.2606016751028752E-3</v>
       </c>
-      <c r="C550" s="6">
+      <c r="C550" s="4">
         <v>7.761399084519864E-4</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B551" s="4">
+      <c r="B551" s="2">
         <v>4.1977002992672355E-3</v>
       </c>
-      <c r="C551" s="6">
+      <c r="C551" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B552" s="4">
+      <c r="B552" s="2">
         <v>2.2618642428123294E-3</v>
       </c>
-      <c r="C552" s="6">
+      <c r="C552" s="4">
         <v>1.1107369049524842E-3</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B553" s="4">
+      <c r="B553" s="2">
         <v>4.1979694243857004E-3</v>
       </c>
-      <c r="C553" s="6">
+      <c r="C553" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="2" t="s">
+      <c r="A554" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B554" s="4">
+      <c r="B554" s="2">
         <v>1.2917061874664071E-3</v>
       </c>
-      <c r="C554" s="6">
+      <c r="C554" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B555" s="4">
+      <c r="B555" s="2">
         <v>1.3502365396665132E-3</v>
       </c>
-      <c r="C555" s="6">
+      <c r="C555" s="4">
         <v>2.0574010046836994E-4</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B556" s="4">
+      <c r="B556" s="2">
         <v>1.2925647228353278E-3</v>
       </c>
-      <c r="C556" s="6">
+      <c r="C556" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="2" t="s">
+      <c r="A557" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B557" s="4">
+      <c r="B557" s="2">
         <v>1.2923171700548566E-3</v>
       </c>
-      <c r="C557" s="6">
+      <c r="C557" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B558" s="4">
+      <c r="B558" s="2">
         <v>3.2738166767121526E-4</v>
       </c>
-      <c r="C558" s="6">
+      <c r="C558" s="4">
         <v>9.3537619334633013E-5</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="2" t="s">
+      <c r="A559" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B559" s="4">
+      <c r="B559" s="2">
         <v>1.2945586064628061E-3</v>
       </c>
-      <c r="C559" s="6">
+      <c r="C559" s="4">
         <v>3.8096899589591345E-4</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" s="2" t="s">
+      <c r="A560" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B560" s="4">
+      <c r="B560" s="2">
         <v>3.2313494362253985E-4</v>
       </c>
-      <c r="C560" s="6">
+      <c r="C560" s="4">
         <v>2.3500723172548343E-5</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="2" t="s">
+      <c r="A561" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B561" s="4">
+      <c r="B561" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C561" s="6">
+      <c r="C561" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="2" t="s">
+      <c r="A562" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B562" s="4">
+      <c r="B562" s="2">
         <v>1.2943422603007477E-3</v>
       </c>
-      <c r="C562" s="6">
+      <c r="C562" s="4">
         <v>2.2134466097011816E-4</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="2" t="s">
+      <c r="A563" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B563" s="4">
+      <c r="B563" s="2">
         <v>1.2920415128346804E-3</v>
       </c>
-      <c r="C563" s="6">
+      <c r="C563" s="4">
         <v>1.3379807666243635E-4</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="2" t="s">
+      <c r="A564" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B564" s="4">
+      <c r="B564" s="2">
         <v>1.2918290466527066E-3</v>
       </c>
-      <c r="C564" s="6">
+      <c r="C564" s="4">
         <v>2.4521264085553218E-4</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B565" s="4">
+      <c r="B565" s="2">
         <v>1.2915728175841665E-3</v>
       </c>
-      <c r="C565" s="6">
+      <c r="C565" s="4">
         <v>3.8747184527524993E-4</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="2" t="s">
+      <c r="A566" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B566" s="4">
+      <c r="B566" s="2">
         <v>1.2927311335592104E-3</v>
       </c>
-      <c r="C566" s="6">
+      <c r="C566" s="4">
         <v>1.4065545333677104E-4</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="2" t="s">
+      <c r="A567" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B567" s="4">
+      <c r="B567" s="2">
         <v>1.2918851717251113E-3</v>
       </c>
-      <c r="C567" s="6">
+      <c r="C567" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B568" s="4">
+      <c r="B568" s="2">
         <v>1.2923541950538183E-3</v>
       </c>
-      <c r="C568" s="6">
+      <c r="C568" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="2" t="s">
+      <c r="A569" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B569" s="4">
+      <c r="B569" s="2">
         <v>1.2962817209237487E-3</v>
       </c>
-      <c r="C569" s="6">
+      <c r="C569" s="4">
         <v>4.7947030328742731E-4</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="2" t="s">
+      <c r="A570" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B570" s="4">
+      <c r="B570" s="2">
         <v>1.2930488413733631E-3</v>
       </c>
-      <c r="C570" s="6">
+      <c r="C570" s="4">
         <v>4.3555329393629091E-5</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="2" t="s">
+      <c r="A571" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B571" s="4">
+      <c r="B571" s="2">
         <v>1.2916321997370546E-3</v>
       </c>
-      <c r="C571" s="6">
+      <c r="C571" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="2" t="s">
+      <c r="A572" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B572" s="4">
+      <c r="B572" s="2">
         <v>1.2928186157854728E-3</v>
       </c>
-      <c r="C572" s="6">
+      <c r="C572" s="4">
         <v>2.4018074037862984E-4</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="2" t="s">
+      <c r="A573" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B573" s="4">
+      <c r="B573" s="2">
         <v>1.292075450156017E-3</v>
       </c>
-      <c r="C573" s="6">
+      <c r="C573" s="4">
         <v>9.528204901326266E-5</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B574" s="4">
+      <c r="B574" s="2">
         <v>1.2918853101234133E-3</v>
       </c>
-      <c r="C574" s="6">
+      <c r="C574" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B575" s="4">
+      <c r="B575" s="2">
         <v>3.2298219448219389E-4</v>
       </c>
-      <c r="C575" s="6">
+      <c r="C575" s="4">
         <v>4.0372774310274236E-5</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="2" t="s">
+      <c r="A576" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B576" s="4">
+      <c r="B576" s="2">
         <v>1.292288881383639E-3</v>
       </c>
-      <c r="C576" s="6">
+      <c r="C576" s="4">
         <v>2.2179164333270771E-4</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="2" t="s">
+      <c r="A577" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B577" s="4">
+      <c r="B577" s="2">
         <v>1.291981856293211E-3</v>
       </c>
-      <c r="C577" s="6">
+      <c r="C577" s="4">
         <v>1.1996974379865536E-4</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="2" t="s">
+      <c r="A578" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B578" s="4">
+      <c r="B578" s="2">
         <v>1.2920476355491777E-3</v>
       </c>
-      <c r="C578" s="6">
+      <c r="C578" s="4">
         <v>1.979750409309225E-4</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="2" t="s">
+      <c r="A579" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B579" s="4">
+      <c r="B579" s="2">
         <v>1.2948844145960463E-3</v>
       </c>
-      <c r="C579" s="6">
+      <c r="C579" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="2" t="s">
+      <c r="A580" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B580" s="4">
+      <c r="B580" s="2">
         <v>1.292288881383639E-3</v>
       </c>
-      <c r="C580" s="6">
+      <c r="C580" s="4">
         <v>2.2150027228261216E-4</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" s="2" t="s">
+      <c r="A581" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B581" s="4">
+      <c r="B581" s="2">
         <v>3.2382780810875662E-4</v>
       </c>
-      <c r="C581" s="6">
+      <c r="C581" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="2" t="s">
+      <c r="A582" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B582" s="4">
+      <c r="B582" s="2">
         <v>1.291766842021186E-3</v>
       </c>
-      <c r="C582" s="6">
+      <c r="C582" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B583" s="4">
+      <c r="B583" s="2">
         <v>3.2357335617973687E-4</v>
       </c>
-      <c r="C583" s="6">
+      <c r="C583" s="4">
         <v>9.2262195929089852E-5</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" s="2" t="s">
+      <c r="A584" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B584" s="4">
+      <c r="B584" s="2">
         <v>1.2918573416925883E-3</v>
       </c>
-      <c r="C584" s="6">
+      <c r="C584" s="4">
         <v>1.8277389056539517E-4</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="2" t="s">
+      <c r="A585" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B585" s="4">
+      <c r="B585" s="2">
         <v>3.2304997513692412E-4</v>
       </c>
-      <c r="C585" s="6">
+      <c r="C585" s="4">
         <v>2.1536665009128282E-5</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="2" t="s">
+      <c r="A586" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B586" s="4">
+      <c r="B586" s="2">
         <v>3.2293931698177249E-4</v>
       </c>
-      <c r="C586" s="6">
+      <c r="C586" s="4">
         <v>4.3394970719425677E-5</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" s="2" t="s">
+      <c r="A587" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B587" s="4">
+      <c r="B587" s="2">
         <v>3.2342687215414857E-4</v>
       </c>
-      <c r="C587" s="6">
+      <c r="C587" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="2" t="s">
+      <c r="A588" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B588" s="4">
+      <c r="B588" s="2">
         <v>3.2293128785487382E-4</v>
       </c>
-      <c r="C588" s="6">
+      <c r="C588" s="4">
         <v>1.6146564392743693E-6</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="2" t="s">
+      <c r="A589" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B589" s="4">
+      <c r="B589" s="2">
         <v>1.29175726792709E-3</v>
       </c>
-      <c r="C589" s="6">
+      <c r="C589" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="2" t="s">
+      <c r="A590" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B590" s="4">
+      <c r="B590" s="2">
         <v>1.2916108517654137E-3</v>
       </c>
-      <c r="C590" s="6">
+      <c r="C590" s="4">
         <v>1.6145135647067672E-4</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="2" t="s">
+      <c r="A591" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B591" s="4">
+      <c r="B591" s="2">
         <v>3.2303231662327865E-4</v>
       </c>
-      <c r="C591" s="6">
+      <c r="C591" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="2" t="s">
+      <c r="A592" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B592" s="4">
+      <c r="B592" s="2">
         <v>1.29225307967201E-3</v>
       </c>
-      <c r="C592" s="6">
+      <c r="C592" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" s="2" t="s">
+      <c r="A593" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B593" s="4">
+      <c r="B593" s="2">
         <v>3.2344996887597783E-4</v>
       </c>
-      <c r="C593" s="6">
+      <c r="C593" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" s="2" t="s">
+      <c r="A594" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B594" s="4">
+      <c r="B594" s="2">
         <v>3.2482832370088992E-4</v>
       </c>
-      <c r="C594" s="6">
+      <c r="C594" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" s="2" t="s">
+      <c r="A595" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B595" s="4">
+      <c r="B595" s="2">
         <v>3.2303467297443425E-4</v>
       </c>
-      <c r="C595" s="6">
+      <c r="C595" s="4">
         <v>3.2303467297443429E-5</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596" s="2" t="s">
+      <c r="A596" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B596" s="4">
+      <c r="B596" s="2">
         <v>3.230692289023052E-4</v>
       </c>
-      <c r="C596" s="6">
+      <c r="C596" s="4">
         <v>4.9830197865891547E-5</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597" s="2" t="s">
+      <c r="A597" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B597" s="4">
+      <c r="B597" s="2">
         <v>3.2358121809757557E-4</v>
       </c>
-      <c r="C597" s="6">
+      <c r="C597" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598" s="2" t="s">
+      <c r="A598" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B598" s="4">
+      <c r="B598" s="2">
         <v>1.292026840439074E-3</v>
       </c>
-      <c r="C598" s="6">
+      <c r="C598" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599" s="2" t="s">
+      <c r="A599" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B599" s="4">
+      <c r="B599" s="2">
         <v>2.3002081391884617E-3</v>
       </c>
-      <c r="C599" s="6">
+      <c r="C599" s="4">
         <v>5.4923936736898645E-4</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="2" t="s">
+      <c r="A600" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B600" s="4">
+      <c r="B600" s="2">
         <v>3.2292151930981216E-4</v>
       </c>
-      <c r="C600" s="6">
+      <c r="C600" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="2" t="s">
+      <c r="A601" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B601" s="4">
+      <c r="B601" s="2">
         <v>3.2417693582678772E-4</v>
       </c>
-      <c r="C601" s="6">
+      <c r="C601" s="4">
         <v>3.9184887118062965E-5</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" s="2" t="s">
+      <c r="A602" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B602" s="4">
+      <c r="B602" s="2">
         <v>3.233474733095937E-4</v>
       </c>
-      <c r="C602" s="6">
+      <c r="C602" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603" s="2" t="s">
+      <c r="A603" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B603" s="4">
+      <c r="B603" s="2">
         <v>3.2472153574973368E-4</v>
       </c>
-      <c r="C603" s="6">
+      <c r="C603" s="4">
         <v>3.6103130747447608E-5</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="2" t="s">
+      <c r="A604" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B604" s="4">
+      <c r="B604" s="2">
         <v>1.2920964339394778E-3</v>
       </c>
-      <c r="C604" s="6">
+      <c r="C604" s="4">
         <v>1.3384273203564468E-4</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" s="2" t="s">
+      <c r="A605" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B605" s="4">
+      <c r="B605" s="2">
         <v>1.2923763974740223E-3</v>
       </c>
-      <c r="C605" s="6">
+      <c r="C605" s="4">
         <v>7.790875716105893E-4</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606" s="2" t="s">
+      <c r="A606" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B606" s="4">
+      <c r="B606" s="2">
         <v>3.2304078642975104E-4</v>
       </c>
-      <c r="C606" s="6">
+      <c r="C606" s="4">
         <v>4.1298718329819635E-5</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" s="2" t="s">
+      <c r="A607" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B607" s="4">
+      <c r="B607" s="2">
         <v>3.26799997561744E-4</v>
       </c>
-      <c r="C607" s="6">
+      <c r="C607" s="4">
         <v>2.068126631570683E-5</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" s="2" t="s">
+      <c r="A608" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B608" s="4">
+      <c r="B608" s="2">
         <v>1.2927884780941244E-3</v>
       </c>
-      <c r="C608" s="6">
+      <c r="C608" s="4">
         <v>7.7567308685647462E-5</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" s="2" t="s">
+      <c r="A609" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B609" s="4">
+      <c r="B609" s="2">
         <v>3.2289312237649342E-4</v>
       </c>
-      <c r="C609" s="6">
+      <c r="C609" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" s="2" t="s">
+      <c r="A610" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B610" s="4">
+      <c r="B610" s="2">
         <v>1.2928558325588035E-3</v>
       </c>
-      <c r="C610" s="6">
+      <c r="C610" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="2" t="s">
+      <c r="A611" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B611" s="4">
+      <c r="B611" s="2">
         <v>3.230692289023052E-4</v>
       </c>
-      <c r="C611" s="6">
+      <c r="C611" s="4">
         <v>6.1024187681546571E-5</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="2" t="s">
+      <c r="A612" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B612" s="4">
+      <c r="B612" s="2">
         <v>1.2916443698654365E-3</v>
       </c>
-      <c r="C612" s="6">
+      <c r="C612" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="2" t="s">
+      <c r="A613" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B613" s="4">
+      <c r="B613" s="2">
         <v>3.2290277733382179E-4</v>
       </c>
-      <c r="C613" s="6">
+      <c r="C613" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C614" s="4" t="s">
+      <c r="C614" s="2" t="s">
         <v>615</v>
       </c>
     </row>
